--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H2">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I2">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J2">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.89975433333333</v>
+        <v>17.723347</v>
       </c>
       <c r="N2">
-        <v>56.699263</v>
+        <v>53.170041</v>
       </c>
       <c r="O2">
-        <v>0.1343931657679153</v>
+        <v>0.1083389314942055</v>
       </c>
       <c r="P2">
-        <v>0.1402432742408926</v>
+        <v>0.1121884745845309</v>
       </c>
       <c r="Q2">
-        <v>1826.095322072909</v>
+        <v>1584.15129132416</v>
       </c>
       <c r="R2">
-        <v>16434.85789865618</v>
+        <v>14257.36162191744</v>
       </c>
       <c r="S2">
-        <v>0.02843810316579299</v>
+        <v>0.02322301349467259</v>
       </c>
       <c r="T2">
-        <v>0.0306278104745075</v>
+        <v>0.02441182330473285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H3">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I3">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J3">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>94.94881599999999</v>
       </c>
       <c r="O3">
-        <v>0.2250553409866243</v>
+        <v>0.193467093096278</v>
       </c>
       <c r="P3">
-        <v>0.2348519563849719</v>
+        <v>0.2003414447366573</v>
       </c>
       <c r="Q3">
-        <v>3057.986639684565</v>
+        <v>2828.910541485197</v>
       </c>
       <c r="R3">
-        <v>27521.87975716108</v>
+        <v>25460.19487336677</v>
       </c>
       <c r="S3">
-        <v>0.04762256301070255</v>
+        <v>0.04147067773130332</v>
       </c>
       <c r="T3">
-        <v>0.05128945575936119</v>
+        <v>0.04359360413480951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H4">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I4">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J4">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.98611566666667</v>
+        <v>47.45519633333333</v>
       </c>
       <c r="N4">
-        <v>104.958347</v>
+        <v>142.365589</v>
       </c>
       <c r="O4">
-        <v>0.2487807385979141</v>
+        <v>0.2900832029413559</v>
       </c>
       <c r="P4">
-        <v>0.259610115958505</v>
+        <v>0.3003905575931054</v>
       </c>
       <c r="Q4">
-        <v>3380.360454935811</v>
+        <v>4241.648631688561</v>
       </c>
       <c r="R4">
-        <v>30423.24409442229</v>
+        <v>38174.83768519705</v>
       </c>
       <c r="S4">
-        <v>0.05264294705377563</v>
+        <v>0.06218084342880254</v>
       </c>
       <c r="T4">
-        <v>0.05669640467167258</v>
+        <v>0.06536394439384048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H5">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I5">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J5">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.5987615</v>
+        <v>16.8400505</v>
       </c>
       <c r="N5">
-        <v>35.197523</v>
+        <v>33.680101</v>
       </c>
       <c r="O5">
-        <v>0.1251420113650951</v>
+        <v>0.102939533795646</v>
       </c>
       <c r="P5">
-        <v>0.08705961258595418</v>
+        <v>0.07106481552351887</v>
       </c>
       <c r="Q5">
-        <v>1700.393321660644</v>
+        <v>1505.200329573137</v>
       </c>
       <c r="R5">
-        <v>10202.35992996386</v>
+        <v>9031.201977438823</v>
       </c>
       <c r="S5">
-        <v>0.02648052383646604</v>
+        <v>0.022065624512823</v>
       </c>
       <c r="T5">
-        <v>0.01901299958019064</v>
+        <v>0.01546345759819061</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H6">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I6">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J6">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.49608633333333</v>
+        <v>49.92347333333333</v>
       </c>
       <c r="N6">
-        <v>112.488259</v>
+        <v>149.77042</v>
       </c>
       <c r="O6">
-        <v>0.2666287432824513</v>
+        <v>0.3051712386725145</v>
       </c>
       <c r="P6">
-        <v>0.2782350408296764</v>
+        <v>0.3160147075621876</v>
       </c>
       <c r="Q6">
-        <v>3622.873961307501</v>
+        <v>4462.268596805518</v>
       </c>
       <c r="R6">
-        <v>32605.86565176751</v>
+        <v>40160.41737124966</v>
       </c>
       <c r="S6">
-        <v>0.05641965248088748</v>
+        <v>0.06541504236874261</v>
       </c>
       <c r="T6">
-        <v>0.06076391287941983</v>
+        <v>0.0687637052850049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J7">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.89975433333333</v>
+        <v>17.723347</v>
       </c>
       <c r="N7">
-        <v>56.699263</v>
+        <v>53.170041</v>
       </c>
       <c r="O7">
-        <v>0.1343931657679153</v>
+        <v>0.1083389314942055</v>
       </c>
       <c r="P7">
-        <v>0.1402432742408926</v>
+        <v>0.1121884745845309</v>
       </c>
       <c r="Q7">
-        <v>2312.460346403205</v>
+        <v>2168.522215696747</v>
       </c>
       <c r="R7">
-        <v>20812.14311762885</v>
+        <v>19516.69994127073</v>
       </c>
       <c r="S7">
-        <v>0.03601235110945326</v>
+        <v>0.03178965352263058</v>
       </c>
       <c r="T7">
-        <v>0.03878526841580919</v>
+        <v>0.03341699839648984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J8">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>94.94881599999999</v>
       </c>
       <c r="O8">
-        <v>0.2250553409866243</v>
+        <v>0.193467093096278</v>
       </c>
       <c r="P8">
-        <v>0.2348519563849719</v>
+        <v>0.2003414447366573</v>
       </c>
       <c r="Q8">
         <v>3872.455483908745</v>
@@ -948,10 +948,10 @@
         <v>34852.0993551787</v>
       </c>
       <c r="S8">
-        <v>0.06030642936609022</v>
+        <v>0.056768622070914</v>
       </c>
       <c r="T8">
-        <v>0.06494996794443832</v>
+        <v>0.05967466588977444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J9">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.98611566666667</v>
+        <v>47.45519633333333</v>
       </c>
       <c r="N9">
-        <v>104.958347</v>
+        <v>142.365589</v>
       </c>
       <c r="O9">
-        <v>0.2487807385979141</v>
+        <v>0.2900832029413559</v>
       </c>
       <c r="P9">
-        <v>0.259610115958505</v>
+        <v>0.3003905575931054</v>
       </c>
       <c r="Q9">
-        <v>4280.690834756138</v>
+        <v>5806.332601798304</v>
       </c>
       <c r="R9">
-        <v>38526.21751280524</v>
+        <v>52256.99341618473</v>
       </c>
       <c r="S9">
-        <v>0.06666395018277099</v>
+        <v>0.08511847391381976</v>
       </c>
       <c r="T9">
-        <v>0.07179701190956646</v>
+        <v>0.08947577564080364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J10">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.5987615</v>
+        <v>16.8400505</v>
       </c>
       <c r="N10">
-        <v>35.197523</v>
+        <v>33.680101</v>
       </c>
       <c r="O10">
-        <v>0.1251420113650951</v>
+        <v>0.102939533795646</v>
       </c>
       <c r="P10">
-        <v>0.08705961258595418</v>
+        <v>0.07106481552351887</v>
       </c>
       <c r="Q10">
-        <v>2153.278682717131</v>
+        <v>2060.447364863145</v>
       </c>
       <c r="R10">
-        <v>12919.67209630279</v>
+        <v>12362.68418917887</v>
       </c>
       <c r="S10">
-        <v>0.03353338710396615</v>
+        <v>0.03020532017449085</v>
       </c>
       <c r="T10">
-        <v>0.02407695100246043</v>
+        <v>0.02116770760268204</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J11">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.49608633333333</v>
+        <v>49.92347333333333</v>
       </c>
       <c r="N11">
-        <v>112.488259</v>
+        <v>149.77042</v>
       </c>
       <c r="O11">
-        <v>0.2666287432824513</v>
+        <v>0.3051712386725145</v>
       </c>
       <c r="P11">
-        <v>0.2782350408296764</v>
+        <v>0.3160147075621876</v>
       </c>
       <c r="Q11">
-        <v>4587.795759769107</v>
+        <v>6108.336140350775</v>
       </c>
       <c r="R11">
-        <v>41290.16183792197</v>
+        <v>54975.02526315697</v>
       </c>
       <c r="S11">
-        <v>0.07144654911650465</v>
+        <v>0.08954572293331242</v>
       </c>
       <c r="T11">
-        <v>0.07694786648182823</v>
+        <v>0.09412966006517862</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H12">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I12">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J12">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.89975433333333</v>
+        <v>17.723347</v>
       </c>
       <c r="N12">
-        <v>56.699263</v>
+        <v>53.170041</v>
       </c>
       <c r="O12">
-        <v>0.1343931657679153</v>
+        <v>0.1083389314942055</v>
       </c>
       <c r="P12">
-        <v>0.1402432742408926</v>
+        <v>0.1121884745845309</v>
       </c>
       <c r="Q12">
-        <v>1582.738110028581</v>
+        <v>1601.031910897657</v>
       </c>
       <c r="R12">
-        <v>14244.64299025723</v>
+        <v>14409.28719807892</v>
       </c>
       <c r="S12">
-        <v>0.02464825856206203</v>
+        <v>0.02347047651054785</v>
       </c>
       <c r="T12">
-        <v>0.0265461513858476</v>
+        <v>0.0246719542054615</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H13">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I13">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J13">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>94.94881599999999</v>
       </c>
       <c r="O13">
-        <v>0.2250553409866243</v>
+        <v>0.193467093096278</v>
       </c>
       <c r="P13">
-        <v>0.2348519563849719</v>
+        <v>0.2003414447366573</v>
       </c>
       <c r="Q13">
-        <v>2650.459664445577</v>
+        <v>2859.055239734535</v>
       </c>
       <c r="R13">
-        <v>23854.13698001019</v>
+        <v>25731.49715761081</v>
       </c>
       <c r="S13">
-        <v>0.04127607385178273</v>
+        <v>0.04191258674471079</v>
       </c>
       <c r="T13">
-        <v>0.04445429287930936</v>
+        <v>0.04405813492253637</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H14">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I14">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J14">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.98611566666667</v>
+        <v>47.45519633333333</v>
       </c>
       <c r="N14">
-        <v>104.958347</v>
+        <v>142.365589</v>
       </c>
       <c r="O14">
-        <v>0.2487807385979141</v>
+        <v>0.2900832029413559</v>
       </c>
       <c r="P14">
-        <v>0.259610115958505</v>
+        <v>0.3003905575931054</v>
       </c>
       <c r="Q14">
-        <v>2929.871870865482</v>
+        <v>4286.84738089144</v>
       </c>
       <c r="R14">
-        <v>26368.84683778934</v>
+        <v>38581.62642802297</v>
       </c>
       <c r="S14">
-        <v>0.04562740921522433</v>
+        <v>0.06284343870516873</v>
       </c>
       <c r="T14">
-        <v>0.04914067699028686</v>
+        <v>0.06606045860001414</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H15">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I15">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J15">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.5987615</v>
+        <v>16.8400505</v>
       </c>
       <c r="N15">
-        <v>35.197523</v>
+        <v>33.680101</v>
       </c>
       <c r="O15">
-        <v>0.1251420113650951</v>
+        <v>0.102939533795646</v>
       </c>
       <c r="P15">
-        <v>0.08705961258595418</v>
+        <v>0.07106481552351887</v>
       </c>
       <c r="Q15">
-        <v>1473.787966980475</v>
+        <v>1521.239652511913</v>
       </c>
       <c r="R15">
-        <v>8842.727801882853</v>
+        <v>9127.437915071476</v>
       </c>
       <c r="S15">
-        <v>0.02295155884957778</v>
+        <v>0.02230075446227451</v>
       </c>
       <c r="T15">
-        <v>0.01647920492308433</v>
+        <v>0.0156282352595387</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H16">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I16">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J16">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.49608633333333</v>
+        <v>49.92347333333333</v>
       </c>
       <c r="N16">
-        <v>112.488259</v>
+        <v>149.77042</v>
       </c>
       <c r="O16">
-        <v>0.2666287432824513</v>
+        <v>0.3051712386725145</v>
       </c>
       <c r="P16">
-        <v>0.2782350408296764</v>
+        <v>0.3160147075621876</v>
       </c>
       <c r="Q16">
-        <v>3140.066467002676</v>
+        <v>4509.818258905325</v>
       </c>
       <c r="R16">
-        <v>28260.59820302408</v>
+        <v>40588.36433014792</v>
       </c>
       <c r="S16">
-        <v>0.04890080657711902</v>
+        <v>0.06611210107182135</v>
       </c>
       <c r="T16">
-        <v>0.05266612288319222</v>
+        <v>0.06949644713594892</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H17">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I17">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J17">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.89975433333333</v>
+        <v>17.723347</v>
       </c>
       <c r="N17">
-        <v>56.699263</v>
+        <v>53.170041</v>
       </c>
       <c r="O17">
-        <v>0.1343931657679153</v>
+        <v>0.1083389314942055</v>
       </c>
       <c r="P17">
-        <v>0.1402432742408926</v>
+        <v>0.1121884745845309</v>
       </c>
       <c r="Q17">
-        <v>804.548083657935</v>
+        <v>330.259701456867</v>
       </c>
       <c r="R17">
-        <v>4827.28850194761</v>
+        <v>1981.558208741202</v>
       </c>
       <c r="S17">
-        <v>0.01252936860871707</v>
+        <v>0.004841472873003485</v>
       </c>
       <c r="T17">
-        <v>0.008996078837743384</v>
+        <v>0.003392875213705038</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H18">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I18">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J18">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>94.94881599999999</v>
       </c>
       <c r="O18">
-        <v>0.2250553409866243</v>
+        <v>0.193467093096278</v>
       </c>
       <c r="P18">
-        <v>0.2348519563849719</v>
+        <v>0.2003414447366573</v>
       </c>
       <c r="Q18">
-        <v>1347.29948709192</v>
+        <v>589.7638413677919</v>
       </c>
       <c r="R18">
-        <v>8083.796922551519</v>
+        <v>3538.583048206752</v>
       </c>
       <c r="S18">
-        <v>0.02098173153723803</v>
+        <v>0.0086456979972575</v>
       </c>
       <c r="T18">
-        <v>0.01506487014278105</v>
+        <v>0.00605885341290296</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H19">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I19">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J19">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>34.98611566666667</v>
+        <v>47.45519633333333</v>
       </c>
       <c r="N19">
-        <v>104.958347</v>
+        <v>142.365589</v>
       </c>
       <c r="O19">
-        <v>0.2487807385979141</v>
+        <v>0.2900832029413559</v>
       </c>
       <c r="P19">
-        <v>0.259610115958505</v>
+        <v>0.3003905575931054</v>
       </c>
       <c r="Q19">
-        <v>1489.332179551515</v>
+        <v>884.287768761943</v>
       </c>
       <c r="R19">
-        <v>8935.993077309091</v>
+        <v>5305.726612571658</v>
       </c>
       <c r="S19">
-        <v>0.02319363160195987</v>
+        <v>0.01296329895989103</v>
       </c>
       <c r="T19">
-        <v>0.01665301300814486</v>
+        <v>0.00908460232713792</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H20">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I20">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J20">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.5987615</v>
+        <v>16.8400505</v>
       </c>
       <c r="N20">
-        <v>35.197523</v>
+        <v>33.680101</v>
       </c>
       <c r="O20">
-        <v>0.1251420113650951</v>
+        <v>0.102939533795646</v>
       </c>
       <c r="P20">
-        <v>0.08705961258595418</v>
+        <v>0.07106481552351887</v>
       </c>
       <c r="Q20">
-        <v>749.1658140024525</v>
+        <v>313.8002122651305</v>
       </c>
       <c r="R20">
-        <v>2996.66325600981</v>
+        <v>1255.200849060522</v>
       </c>
       <c r="S20">
-        <v>0.01166689079664397</v>
+        <v>0.004600183457208099</v>
       </c>
       <c r="T20">
-        <v>0.005584546871469671</v>
+        <v>0.002149187356804601</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H21">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I21">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J21">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.49608633333333</v>
+        <v>49.92347333333333</v>
       </c>
       <c r="N21">
-        <v>112.488259</v>
+        <v>149.77042</v>
       </c>
       <c r="O21">
-        <v>0.2666287432824513</v>
+        <v>0.3051712386725145</v>
       </c>
       <c r="P21">
-        <v>0.2782350408296764</v>
+        <v>0.3160147075621876</v>
       </c>
       <c r="Q21">
-        <v>1596.179710703955</v>
+        <v>930.28203977254</v>
       </c>
       <c r="R21">
-        <v>9577.07826422373</v>
+        <v>5581.69223863524</v>
       </c>
       <c r="S21">
-        <v>0.02485758697011345</v>
+        <v>0.01363755626233838</v>
       </c>
       <c r="T21">
-        <v>0.01784773192350837</v>
+        <v>0.009557117809335398</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H22">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I22">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J22">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.89975433333333</v>
+        <v>17.723347</v>
       </c>
       <c r="N22">
-        <v>56.699263</v>
+        <v>53.170041</v>
       </c>
       <c r="O22">
-        <v>0.1343931657679153</v>
+        <v>0.1083389314942055</v>
       </c>
       <c r="P22">
-        <v>0.1402432742408926</v>
+        <v>0.1121884745845309</v>
       </c>
       <c r="Q22">
-        <v>2103.943672287445</v>
+        <v>1706.344422777509</v>
       </c>
       <c r="R22">
-        <v>18935.493050587</v>
+        <v>15357.09980499758</v>
       </c>
       <c r="S22">
-        <v>0.03276508432188997</v>
+        <v>0.02501431509335099</v>
       </c>
       <c r="T22">
-        <v>0.03528796512698495</v>
+        <v>0.0262948234641417</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H23">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I23">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J23">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>94.94881599999999</v>
       </c>
       <c r="O23">
-        <v>0.2250553409866243</v>
+        <v>0.193467093096278</v>
       </c>
       <c r="P23">
-        <v>0.2348519563849719</v>
+        <v>0.2003414447366573</v>
       </c>
       <c r="Q23">
-        <v>3523.272614925962</v>
+        <v>3047.11788036665</v>
       </c>
       <c r="R23">
-        <v>31709.45353433366</v>
+        <v>27424.06092329985</v>
       </c>
       <c r="S23">
-        <v>0.05486854322081075</v>
+        <v>0.04466950855209243</v>
       </c>
       <c r="T23">
-        <v>0.05909336965908198</v>
+        <v>0.04695618637663403</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H24">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I24">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J24">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.98611566666667</v>
+        <v>47.45519633333333</v>
       </c>
       <c r="N24">
-        <v>104.958347</v>
+        <v>142.365589</v>
       </c>
       <c r="O24">
-        <v>0.2487807385979141</v>
+        <v>0.2900832029413559</v>
       </c>
       <c r="P24">
-        <v>0.259610115958505</v>
+        <v>0.3003905575931054</v>
       </c>
       <c r="Q24">
-        <v>3894.697009102216</v>
+        <v>4568.827185700027</v>
       </c>
       <c r="R24">
-        <v>35052.27308191994</v>
+        <v>41119.44467130025</v>
       </c>
       <c r="S24">
-        <v>0.06065280054418323</v>
+        <v>0.06697714793367382</v>
       </c>
       <c r="T24">
-        <v>0.06532300937883416</v>
+        <v>0.07040577663130923</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H25">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I25">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J25">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.5987615</v>
+        <v>16.8400505</v>
       </c>
       <c r="N25">
-        <v>35.197523</v>
+        <v>33.680101</v>
       </c>
       <c r="O25">
-        <v>0.1251420113650951</v>
+        <v>0.102939533795646</v>
       </c>
       <c r="P25">
-        <v>0.08705961258595418</v>
+        <v>0.07106481552351887</v>
       </c>
       <c r="Q25">
-        <v>1959.115565471507</v>
+        <v>1621.303597450673</v>
       </c>
       <c r="R25">
-        <v>11754.69339282904</v>
+        <v>9727.821584704039</v>
       </c>
       <c r="S25">
-        <v>0.03050965077844121</v>
+        <v>0.02376765118884953</v>
       </c>
       <c r="T25">
-        <v>0.02190591020874911</v>
+        <v>0.01665622770630293</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H26">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I26">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J26">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.49608633333333</v>
+        <v>49.92347333333333</v>
       </c>
       <c r="N26">
-        <v>112.488259</v>
+        <v>149.77042</v>
       </c>
       <c r="O26">
-        <v>0.2666287432824513</v>
+        <v>0.3051712386725145</v>
       </c>
       <c r="P26">
-        <v>0.2782350408296764</v>
+        <v>0.3160147075621876</v>
       </c>
       <c r="Q26">
-        <v>4174.110000859821</v>
+        <v>4806.464619127246</v>
       </c>
       <c r="R26">
-        <v>37566.99000773839</v>
+        <v>43258.18157214521</v>
       </c>
       <c r="S26">
-        <v>0.06500414813782675</v>
+        <v>0.07046081603629976</v>
       </c>
       <c r="T26">
-        <v>0.07000940666172768</v>
+        <v>0.07406777726671977</v>
       </c>
     </row>
   </sheetData>
